--- a/Team Docs/GroceryItemsExcelSheet.xlsx
+++ b/Team Docs/GroceryItemsExcelSheet.xlsx
@@ -86,9 +86,6 @@
     <t>Grapes</t>
   </si>
   <si>
-    <t>Expiration</t>
-  </si>
-  <si>
     <t>Eggs</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Type (Fruit/ Vegetable / Meat / Dairy / Condiment)</t>
+  </si>
+  <si>
+    <t>Expiration (Days)</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:L5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,13 +704,13 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -727,7 +727,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>6</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -754,39 +754,39 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="3"/>
       <c r="I14" t="s">
@@ -795,7 +795,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3"/>
       <c r="I15" t="s">
@@ -804,7 +804,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3"/>
       <c r="I16" t="s">
@@ -813,7 +813,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3"/>
       <c r="I17" t="s">
@@ -831,7 +831,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3"/>
       <c r="I19" t="s">
@@ -849,7 +849,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>6</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>6</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>5</v>
@@ -882,39 +882,39 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>6</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="3"/>
       <c r="I30" t="s">
@@ -931,7 +931,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="3"/>
       <c r="I31" t="s">
@@ -940,24 +940,24 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="3"/>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" s="3"/>
       <c r="I34" t="s">
@@ -966,7 +966,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>6</v>
@@ -983,15 +983,15 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>6</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" s="3"/>
       <c r="I39" t="s">
@@ -1026,7 +1026,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="3"/>
       <c r="I42" t="s">
@@ -1044,7 +1044,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" s="3"/>
       <c r="I44" t="s">
@@ -1053,7 +1053,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" s="3"/>
       <c r="I45" t="s">
@@ -1062,7 +1062,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" s="3"/>
       <c r="I46" t="s">
@@ -1080,7 +1080,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>6</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E49" s="3"/>
       <c r="I49" t="s">
@@ -1097,7 +1097,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E50" s="3"/>
       <c r="I50" t="s">
@@ -1115,7 +1115,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>5</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
@@ -1131,15 +1131,15 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E55" s="3"/>
       <c r="I55" t="s">
@@ -1148,7 +1148,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="3"/>
       <c r="I56" t="s">
@@ -1157,7 +1157,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57" s="3"/>
       <c r="I57" t="s">
@@ -1166,7 +1166,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>6</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59" s="3"/>
       <c r="I59" t="s">
@@ -1183,7 +1183,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60" s="3"/>
       <c r="I60" t="s">
@@ -1201,7 +1201,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>6</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>6</v>

--- a/Team Docs/GroceryItemsExcelSheet.xlsx
+++ b/Team Docs/GroceryItemsExcelSheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>GROCERY BUDDY: COMMON GROCERY ITEM EXPIRATION DATES</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>Pumpkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boxed Cereal (Unopened) </t>
+  </si>
+  <si>
+    <t>Grains</t>
+  </si>
+  <si>
+    <t>Boxed Cereal (Opened)</t>
   </si>
 </sst>
 </file>
@@ -597,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1390,8 +1399,30 @@
         <v>6</v>
       </c>
     </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67">
+        <v>180</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68">
+        <v>120</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A6:L65">
+  <sortState ref="A6:I66">
     <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="1">
